--- a/Greengarden/Ressources/Travaux/Back end/Scripts/Liste produits année.xlsx
+++ b/Greengarden/Ressources/Travaux/Back end/Scripts/Liste produits année.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
-    <t>Liste des produits commandés pour l'année 2021</t>
-  </si>
-  <si>
     <t>Requete</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>Nunc Quisque Company</t>
+  </si>
+  <si>
+    <t>Liste des produits commandés aux fournisseurs pour une année (2021)</t>
   </si>
 </sst>
 </file>
@@ -252,6 +252,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -603,7 +604,6 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -613,6 +613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -937,7 +938,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,258 +951,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+      <c r="A1" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>44213</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7031</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44341</v>
+      </c>
+      <c r="B12" s="2">
+        <v>7024</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44347</v>
+      </c>
+      <c r="B13" s="2">
+        <v>7035</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
         <v>20</v>
       </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>44213</v>
-      </c>
-      <c r="B11" s="3">
-        <v>7031</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="E13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44444</v>
+      </c>
+      <c r="B14" s="2">
+        <v>7029</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2">
+        <v>20</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>44532</v>
+      </c>
+      <c r="B15" s="2">
+        <v>7033</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>44341</v>
-      </c>
-      <c r="B12" s="3">
-        <v>7024</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="D15" s="2">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44205</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7049</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>44290</v>
+      </c>
+      <c r="B17" s="2">
+        <v>7048</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2">
+        <v>16</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44266</v>
+      </c>
+      <c r="B18" s="2">
+        <v>7037</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2">
+        <v>29</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44386</v>
+      </c>
+      <c r="B19" s="2">
+        <v>7026</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D19" s="2">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44374</v>
+      </c>
+      <c r="B20" s="2">
+        <v>7039</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>44427</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7044</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2">
+        <v>40</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44512</v>
+      </c>
+      <c r="B22" s="2">
+        <v>7041</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>44347</v>
-      </c>
-      <c r="B13" s="3">
-        <v>7035</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="3">
-        <v>20</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>44444</v>
-      </c>
-      <c r="B14" s="3">
-        <v>7029</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3">
-        <v>20</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>44532</v>
-      </c>
-      <c r="B15" s="3">
-        <v>7033</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3">
-        <v>33</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>44205</v>
-      </c>
-      <c r="B16" s="3">
-        <v>7049</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3">
-        <v>24</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>44290</v>
-      </c>
-      <c r="B17" s="3">
-        <v>7048</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3">
-        <v>16</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>44266</v>
-      </c>
-      <c r="B18" s="3">
-        <v>7037</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="3">
-        <v>29</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>44386</v>
-      </c>
-      <c r="B19" s="3">
-        <v>7026</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="3">
-        <v>10</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>44374</v>
-      </c>
-      <c r="B20" s="3">
-        <v>7039</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3">
-        <v>5</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>44427</v>
-      </c>
-      <c r="B21" s="3">
-        <v>7044</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="3">
-        <v>40</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>44512</v>
-      </c>
-      <c r="B22" s="3">
-        <v>7041</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="3">
-        <v>9</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
